--- a/Portfolio_20231229 - Copyright.xlsx
+++ b/Portfolio_20231229 - Copyright.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibf_pmp3\Documents\Managers 23_24\Xuanzhe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72444E4E-D750-4619-B983-59A6C7CF0E91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C33ADA-BB16-49AD-A811-9490CBD75FD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="837" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="837" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="15" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="10. BM" sheetId="43" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Current Position'!$AD$1:$AN$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Current Position'!$AD$1:$AN$30</definedName>
     <definedName name="SpreadsheetBuilder_1" hidden="1">#REF!</definedName>
     <definedName name="SpreadsheetBuilder_13" hidden="1">'10. BM'!#REF!</definedName>
     <definedName name="SpreadsheetBuilder_14" hidden="1">#REF!</definedName>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="529">
   <si>
     <t>Asset Class</t>
   </si>
@@ -3288,6 +3288,15 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3324,15 +3333,6 @@
     <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
@@ -3345,77 +3345,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF375623"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF375623"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <font>
         <color theme="9" tint="-0.499984740745262"/>
@@ -3523,12 +3453,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF375623"/>
+        <color theme="9" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -3553,12 +3483,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
+        <color rgb="FF375623"/>
       </font>
     </dxf>
     <dxf>
@@ -3579,36 +3504,6 @@
     <dxf>
       <font>
         <color rgb="FF375623"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF375623"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF375623"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
@@ -4169,8 +4064,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|3276010522175082112</stp>
+        <tr r="I36" s="4"/>
         <tr r="I19" s="4"/>
-        <tr r="I36" s="4"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -4262,8 +4157,6 @@
         <stp>BDP|7360387276313822315</stp>
         <tr r="M28" s="4"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -4274,8 +4167,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDP|269061122321969264</stp>
+        <tr r="M4" s="4"/>
         <tr r="M19" s="4"/>
-        <tr r="M4" s="4"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -5399,118 +5292,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="396" t="s">
+      <c r="A1" s="399" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="397"/>
-      <c r="J1" s="397"/>
-      <c r="K1" s="397"/>
-      <c r="L1" s="397"/>
-      <c r="M1" s="397"/>
-      <c r="N1" s="397"/>
-      <c r="O1" s="397"/>
+      <c r="B1" s="400"/>
+      <c r="C1" s="400"/>
+      <c r="D1" s="400"/>
+      <c r="E1" s="400"/>
+      <c r="F1" s="400"/>
+      <c r="G1" s="400"/>
+      <c r="H1" s="400"/>
+      <c r="I1" s="400"/>
+      <c r="J1" s="400"/>
+      <c r="K1" s="400"/>
+      <c r="L1" s="400"/>
+      <c r="M1" s="400"/>
+      <c r="N1" s="400"/>
+      <c r="O1" s="400"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="397"/>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="397"/>
-      <c r="H2" s="397"/>
-      <c r="I2" s="397"/>
-      <c r="J2" s="397"/>
-      <c r="K2" s="397"/>
-      <c r="L2" s="397"/>
-      <c r="M2" s="397"/>
-      <c r="N2" s="397"/>
-      <c r="O2" s="397"/>
+      <c r="A2" s="400"/>
+      <c r="B2" s="400"/>
+      <c r="C2" s="400"/>
+      <c r="D2" s="400"/>
+      <c r="E2" s="400"/>
+      <c r="F2" s="400"/>
+      <c r="G2" s="400"/>
+      <c r="H2" s="400"/>
+      <c r="I2" s="400"/>
+      <c r="J2" s="400"/>
+      <c r="K2" s="400"/>
+      <c r="L2" s="400"/>
+      <c r="M2" s="400"/>
+      <c r="N2" s="400"/>
+      <c r="O2" s="400"/>
     </row>
     <row r="3" spans="1:28" s="7" customFormat="1">
-      <c r="A3" s="398" t="s">
+      <c r="A3" s="401" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="398" t="s">
+      <c r="B3" s="401" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="398" t="s">
+      <c r="C3" s="401" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="398" t="s">
+      <c r="D3" s="401" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="398" t="s">
+      <c r="E3" s="401" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="398" t="s">
+      <c r="F3" s="401" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="398" t="s">
+      <c r="G3" s="401" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="398" t="s">
+      <c r="H3" s="401" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="400" t="s">
+      <c r="I3" s="403" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="406" t="s">
+      <c r="J3" s="409" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="402" t="s">
+      <c r="K3" s="405" t="s">
         <v>324</v>
       </c>
-      <c r="L3" s="406" t="s">
+      <c r="L3" s="409" t="s">
         <v>113</v>
       </c>
-      <c r="M3" s="402" t="s">
+      <c r="M3" s="405" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="404" t="s">
+      <c r="N3" s="407" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="404"/>
-      <c r="P3" s="404"/>
-      <c r="Q3" s="404"/>
-      <c r="R3" s="404"/>
-      <c r="S3" s="404"/>
-      <c r="T3" s="404"/>
-      <c r="U3" s="404"/>
-      <c r="V3" s="404"/>
-      <c r="W3" s="404"/>
+      <c r="O3" s="407"/>
+      <c r="P3" s="407"/>
+      <c r="Q3" s="407"/>
+      <c r="R3" s="407"/>
+      <c r="S3" s="407"/>
+      <c r="T3" s="407"/>
+      <c r="U3" s="407"/>
+      <c r="V3" s="407"/>
+      <c r="W3" s="407"/>
     </row>
     <row r="4" spans="1:28" s="7" customFormat="1">
-      <c r="A4" s="399"/>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
-      <c r="I4" s="401"/>
-      <c r="J4" s="407"/>
-      <c r="K4" s="403"/>
-      <c r="L4" s="407"/>
-      <c r="M4" s="403"/>
-      <c r="N4" s="405"/>
-      <c r="O4" s="405"/>
-      <c r="P4" s="405"/>
-      <c r="Q4" s="405"/>
-      <c r="R4" s="405"/>
-      <c r="S4" s="405"/>
-      <c r="T4" s="405"/>
-      <c r="U4" s="405"/>
-      <c r="V4" s="405"/>
-      <c r="W4" s="405"/>
+      <c r="A4" s="402"/>
+      <c r="B4" s="402"/>
+      <c r="C4" s="402"/>
+      <c r="D4" s="402"/>
+      <c r="E4" s="402"/>
+      <c r="F4" s="402"/>
+      <c r="G4" s="402"/>
+      <c r="H4" s="402"/>
+      <c r="I4" s="404"/>
+      <c r="J4" s="410"/>
+      <c r="K4" s="406"/>
+      <c r="L4" s="410"/>
+      <c r="M4" s="406"/>
+      <c r="N4" s="408"/>
+      <c r="O4" s="408"/>
+      <c r="P4" s="408"/>
+      <c r="Q4" s="408"/>
+      <c r="R4" s="408"/>
+      <c r="S4" s="408"/>
+      <c r="T4" s="408"/>
+      <c r="U4" s="408"/>
+      <c r="V4" s="408"/>
+      <c r="W4" s="408"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
@@ -21144,7 +21037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -26160,14 +26053,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AS49"/>
+  <dimension ref="A1:AS48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AL19" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" sqref="A1:XFD1048576"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD38"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -26369,7 +26262,7 @@
         <v>-0.35626743301496067</v>
       </c>
       <c r="G2" s="220">
-        <v>1.3032592444006529E-3</v>
+        <v>1.3044055342368252E-3</v>
       </c>
       <c r="H2" s="240">
         <v>1519.6367742804962</v>
@@ -26484,7 +26377,7 @@
         <v>-0.15837259755526456</v>
       </c>
       <c r="G3" s="220">
-        <v>5.8588505122205717E-2</v>
+        <v>5.8640037009070625E-2</v>
       </c>
       <c r="H3" s="240">
         <v>100565.91823809427</v>
@@ -26835,7 +26728,7 @@
         <v>2.2273465696478185</v>
       </c>
       <c r="G6" s="220">
-        <v>2.2102681556968408E-2</v>
+        <v>2.2122122109053313E-2</v>
       </c>
       <c r="H6" s="240">
         <v>37537.847059063883</v>
@@ -26950,7 +26843,7 @@
         <v>0.3699374551420076</v>
       </c>
       <c r="G7" s="220">
-        <v>0.1027836053508885</v>
+        <v>0.10287400931513818</v>
       </c>
       <c r="H7" s="240">
         <v>127216.74425424288</v>
@@ -27065,7 +26958,7 @@
         <v>0.52644807494573298</v>
       </c>
       <c r="G8" s="261">
-        <v>4.4446964476059884E-2</v>
+        <v>4.4486058082221905E-2</v>
       </c>
       <c r="H8" s="262">
         <v>52439.868975198871</v>
@@ -27162,7 +27055,7 @@
         <v>0.27066096053257271</v>
       </c>
       <c r="G9" s="261">
-        <v>5.8336640874828607E-2</v>
+        <v>5.8387951232916263E-2</v>
       </c>
       <c r="H9" s="262">
         <v>86527.94921530594</v>
@@ -27261,7 +27154,7 @@
         <v>2.4342774742666995E-2</v>
       </c>
       <c r="G10" s="220">
-        <v>8.9216665092686012E-3</v>
+        <v>8.929513616960514E-3</v>
       </c>
       <c r="H10" s="240">
         <v>15587.405390232974</v>
@@ -27378,7 +27271,7 @@
         <v>0.15180462374668635</v>
       </c>
       <c r="G11" s="220">
-        <v>3.1413275107850358E-2</v>
+        <v>3.1440904850844102E-2</v>
       </c>
       <c r="H11" s="240">
         <v>50051.944359389359</v>
@@ -27495,7 +27388,7 @@
         <v>1.267317962054304E-2</v>
       </c>
       <c r="G12" s="220">
-        <v>6.1757969375372271E-2</v>
+        <v>6.1812288984384657E-2</v>
       </c>
       <c r="H12" s="240">
         <v>103895.41362660541</v>
@@ -27610,7 +27503,7 @@
         <v>-1.8988099660695146E-2</v>
       </c>
       <c r="G13" s="224">
-        <v>2.1828247796467786E-2</v>
+        <v>2.1847446968618716E-2</v>
       </c>
       <c r="H13" s="262">
         <v>35063.490627574029</v>
@@ -27721,7 +27614,7 @@
         <v>3.0860839250119954E-2</v>
       </c>
       <c r="G14" s="224">
-        <v>3.9929721578904488E-2</v>
+        <v>3.9964842015765945E-2</v>
       </c>
       <c r="H14" s="262">
         <v>69016.845013177532</v>
@@ -27834,7 +27727,7 @@
         <v>0.18702044955213815</v>
       </c>
       <c r="G15" s="220">
-        <v>7.2139750594341731E-2</v>
+        <v>7.2203201564089742E-2</v>
       </c>
       <c r="H15" s="240">
         <v>112540.29910966459</v>
@@ -27951,7 +27844,7 @@
         <v>0.11540364986081042</v>
       </c>
       <c r="G16" s="220">
-        <v>4.6834938381472783E-2</v>
+        <v>4.6876132345049178E-2</v>
       </c>
       <c r="H16" s="240">
         <v>63119.023009844161</v>
@@ -28068,7 +27961,7 @@
         <v>4.142468006373079E-3</v>
       </c>
       <c r="G17" s="220">
-        <v>5.4402145580315198E-2</v>
+        <v>5.4449995328408371E-2</v>
       </c>
       <c r="H17" s="240">
         <v>97225</v>
@@ -28185,7 +28078,7 @@
         <v>2.1192519680096833E-2</v>
       </c>
       <c r="G18" s="283">
-        <v>1.8670108213050346E-2</v>
+        <v>1.8686529623738051E-2</v>
       </c>
       <c r="H18" s="284">
         <v>32829.509963999997</v>
@@ -28294,7 +28187,7 @@
         <v>-7.5918249301070051E-2</v>
       </c>
       <c r="G19" s="283">
-        <v>1.9342822190362357E-2</v>
+        <v>1.935983529084483E-2</v>
       </c>
       <c r="H19" s="284">
         <v>37511.570922951265</v>
@@ -28512,7 +28405,7 @@
         <v>4.4584482413093651E-2</v>
       </c>
       <c r="G21" s="283">
-        <v>3.6111395544004173E-2</v>
+        <v>3.6143157548271493E-2</v>
       </c>
       <c r="H21" s="284">
         <v>57525</v>
@@ -28621,7 +28514,7 @@
         <v>2.5869899778536931E-2</v>
       </c>
       <c r="G22" s="283">
-        <v>3.4245233990490578E-2</v>
+        <v>3.427535460066794E-2</v>
       </c>
       <c r="H22" s="284">
         <v>64912.5</v>
@@ -28730,7 +28623,7 @@
         <v>0.41988400994200492</v>
       </c>
       <c r="G23" s="283">
-        <v>4.3229003012157693E-2</v>
+        <v>4.3267025352680961E-2</v>
       </c>
       <c r="H23" s="284">
         <v>57282.87503403212</v>
@@ -28839,7 +28732,7 @@
         <v>0.44348086124401931</v>
       </c>
       <c r="G24" s="229">
-        <v>4.3832362652752171E-2</v>
+        <v>4.3870915682028687E-2</v>
       </c>
       <c r="H24" s="322">
         <v>50884.835284508568</v>
@@ -28948,7 +28841,7 @@
         <v>5.7131267360705618E-2</v>
       </c>
       <c r="G25" s="229">
-        <v>4.3866685744601119E-2</v>
+        <v>4.3905268962968175E-2</v>
       </c>
       <c r="H25" s="322">
         <v>74080.002235684879</v>
@@ -29053,7 +28946,7 @@
         <v>3.9186152444579347E-2</v>
       </c>
       <c r="G26" s="231">
-        <v>2.2166400824898794E-2</v>
+        <v>2.2185897421665147E-2</v>
       </c>
       <c r="H26" s="262">
         <v>40020.937056318035</v>
@@ -29158,7 +29051,7 @@
         <v>7.611320754716977E-2</v>
       </c>
       <c r="G27" s="231">
-        <v>2.1700284919702321E-2</v>
+        <v>2.1719371541303028E-2</v>
       </c>
       <c r="H27" s="262">
         <v>34165.668390961066</v>
@@ -29252,18 +29145,18 @@
         <v>474</v>
       </c>
       <c r="B28" s="232" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="C28" s="233">
-        <v>3.1559999999999998E-2</v>
+        <v>-4.0200000000000001E-3</v>
       </c>
       <c r="D28" s="233">
-        <v>3.1559999999999998E-2</v>
+        <v>-4.0200000000000001E-3</v>
       </c>
       <c r="E28" s="233"/>
       <c r="F28" s="233"/>
       <c r="G28" s="233">
-        <v>2.8723628948709126E-2</v>
+        <v>2.7757301995735489E-2</v>
       </c>
       <c r="H28" s="353">
         <v>50000</v>
@@ -29278,7 +29171,7 @@
         <v>70</v>
       </c>
       <c r="N28" s="356">
-        <v>19715310</v>
+        <v>19233475</v>
       </c>
       <c r="O28" s="355"/>
       <c r="P28" s="357"/>
@@ -29289,7 +29182,7 @@
         <v>383.39</v>
       </c>
       <c r="U28" s="357">
-        <v>1578</v>
+        <v>-201</v>
       </c>
       <c r="V28" s="357"/>
       <c r="W28" s="359"/>
@@ -29297,7 +29190,7 @@
         <v>45290</v>
       </c>
       <c r="Y28" s="361">
-        <v>45295</v>
+        <v>45363</v>
       </c>
       <c r="Z28" s="362" t="s">
         <v>33</v>
@@ -29315,17 +29208,17 @@
         <v>70</v>
       </c>
       <c r="AE28" s="364">
-        <v>19715310</v>
+        <v>19233475</v>
       </c>
       <c r="AF28" s="364">
         <v>50000</v>
       </c>
       <c r="AG28" s="365">
-        <v>394.30619999999999</v>
+        <v>384.66950000000003</v>
       </c>
       <c r="AH28" s="365"/>
       <c r="AI28" s="366">
-        <v>51578</v>
+        <v>49799</v>
       </c>
       <c r="AJ28" s="367"/>
       <c r="AK28" s="368"/>
@@ -29351,18 +29244,18 @@
         <v>474</v>
       </c>
       <c r="B29" s="232" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C29" s="233">
-        <v>-4.0200000000000001E-3</v>
+        <v>1.56E-3</v>
       </c>
       <c r="D29" s="233">
-        <v>-4.0200000000000001E-3</v>
+        <v>1.56E-3</v>
       </c>
       <c r="E29" s="233"/>
       <c r="F29" s="233"/>
       <c r="G29" s="233">
-        <v>2.7732909341517037E-2</v>
+        <v>2.7912812894685474E-2</v>
       </c>
       <c r="H29" s="353">
         <v>50000</v>
@@ -29371,13 +29264,13 @@
       <c r="J29" s="232"/>
       <c r="K29" s="354"/>
       <c r="L29" s="354" t="s">
-        <v>222</v>
+        <v>521</v>
       </c>
       <c r="M29" s="355" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N29" s="356">
-        <v>19233475</v>
+        <v>219900000</v>
       </c>
       <c r="O29" s="355"/>
       <c r="P29" s="357"/>
@@ -29385,10 +29278,10 @@
       <c r="R29" s="358"/>
       <c r="S29" s="357"/>
       <c r="T29" s="357">
-        <v>383.39</v>
+        <v>4287.88</v>
       </c>
       <c r="U29" s="357">
-        <v>-201</v>
+        <v>78</v>
       </c>
       <c r="V29" s="357"/>
       <c r="W29" s="359"/>
@@ -29396,10 +29289,10 @@
         <v>45290</v>
       </c>
       <c r="Y29" s="361">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="Z29" s="362" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="AA29" s="362" t="s">
         <v>475</v>
@@ -29411,20 +29304,20 @@
         <v>50000</v>
       </c>
       <c r="AD29" s="355" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AE29" s="364">
-        <v>19233475</v>
+        <v>219900000</v>
       </c>
       <c r="AF29" s="364">
         <v>50000</v>
       </c>
       <c r="AG29" s="365">
-        <v>384.66950000000003</v>
+        <v>4398</v>
       </c>
       <c r="AH29" s="365"/>
       <c r="AI29" s="366">
-        <v>49799</v>
+        <v>50078</v>
       </c>
       <c r="AJ29" s="367"/>
       <c r="AK29" s="368"/>
@@ -29438,224 +29331,198 @@
         <v>140</v>
       </c>
       <c r="AQ29" s="364">
-        <v>9.0909090909090917</v>
+        <v>10.090909090909101</v>
       </c>
       <c r="AR29" s="370" t="s">
         <v>33</v>
       </c>
       <c r="AS29" s="371"/>
     </row>
-    <row r="30" spans="1:45" s="184" customFormat="1">
-      <c r="A30" s="232" t="s">
-        <v>474</v>
-      </c>
-      <c r="B30" s="232" t="s">
-        <v>496</v>
-      </c>
-      <c r="C30" s="233">
-        <v>1.56E-3</v>
-      </c>
-      <c r="D30" s="233">
-        <v>1.56E-3</v>
-      </c>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233">
-        <v>2.7888283580081732E-2</v>
-      </c>
-      <c r="H30" s="353">
-        <v>50000</v>
-      </c>
-      <c r="I30" s="233"/>
-      <c r="J30" s="232"/>
-      <c r="K30" s="354"/>
-      <c r="L30" s="354" t="s">
-        <v>521</v>
-      </c>
-      <c r="M30" s="355" t="s">
-        <v>77</v>
-      </c>
-      <c r="N30" s="356">
-        <v>219900000</v>
-      </c>
-      <c r="O30" s="355"/>
-      <c r="P30" s="357"/>
-      <c r="Q30" s="357"/>
-      <c r="R30" s="358"/>
-      <c r="S30" s="357"/>
-      <c r="T30" s="357">
-        <v>4287.88</v>
-      </c>
-      <c r="U30" s="357">
-        <v>78</v>
-      </c>
-      <c r="V30" s="357"/>
-      <c r="W30" s="359"/>
-      <c r="X30" s="360">
+    <row r="30" spans="1:45">
+      <c r="A30" s="234" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="234" t="s">
+        <v>500</v>
+      </c>
+      <c r="C30" s="235">
+        <v>6.7845232384540211E-3</v>
+      </c>
+      <c r="D30" s="235">
+        <v>6.7845232384540211E-3</v>
+      </c>
+      <c r="E30" s="235">
+        <v>6.7845232384540211E-3</v>
+      </c>
+      <c r="F30" s="235">
+        <v>6.7845232384540211E-3</v>
+      </c>
+      <c r="G30" s="235">
+        <v>0.27106831676471582</v>
+      </c>
+      <c r="H30" s="372">
+        <v>483042.78499999997</v>
+      </c>
+      <c r="I30" s="373" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="234"/>
+      <c r="K30" s="374" t="s">
+        <v>522</v>
+      </c>
+      <c r="L30" s="374" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="237" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="375">
+        <v>500000</v>
+      </c>
+      <c r="O30" s="376">
+        <v>0.96608556999999995</v>
+      </c>
+      <c r="P30" s="376">
+        <v>0.96608556999999995</v>
+      </c>
+      <c r="Q30" s="376">
+        <v>1</v>
+      </c>
+      <c r="R30" s="377">
+        <v>483042.78499999997</v>
+      </c>
+      <c r="S30" s="376">
+        <v>0.97263999999999995</v>
+      </c>
+      <c r="T30" s="376">
+        <v>1</v>
+      </c>
+      <c r="U30" s="376">
+        <v>486320</v>
+      </c>
+      <c r="V30" s="376"/>
+      <c r="W30" s="378"/>
+      <c r="X30" s="379">
         <v>45290</v>
       </c>
-      <c r="Y30" s="361">
-        <v>45366</v>
-      </c>
-      <c r="Z30" s="362" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA30" s="362" t="s">
-        <v>475</v>
-      </c>
-      <c r="AB30" s="363" t="s">
+      <c r="Y30" s="380">
+        <v>45616</v>
+      </c>
+      <c r="Z30" s="381"/>
+      <c r="AA30" s="381"/>
+      <c r="AB30" s="382"/>
+      <c r="AC30" s="382"/>
+      <c r="AD30" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="AC30" s="363">
-        <v>50000</v>
-      </c>
-      <c r="AD30" s="355" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE30" s="364">
-        <v>219900000</v>
-      </c>
-      <c r="AF30" s="364">
-        <v>50000</v>
-      </c>
-      <c r="AG30" s="365">
-        <v>4398</v>
-      </c>
-      <c r="AH30" s="365"/>
-      <c r="AI30" s="366">
-        <v>50078</v>
-      </c>
-      <c r="AJ30" s="367"/>
-      <c r="AK30" s="368"/>
-      <c r="AL30" s="366"/>
-      <c r="AM30" s="355"/>
-      <c r="AN30" s="355"/>
-      <c r="AO30" s="369" t="s">
-        <v>214</v>
-      </c>
-      <c r="AP30" s="355" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ30" s="364">
-        <v>10.090909090909101</v>
-      </c>
-      <c r="AR30" s="370" t="s">
+      <c r="AE30" s="383"/>
+      <c r="AF30" s="383"/>
+      <c r="AG30" s="384"/>
+      <c r="AH30" s="384"/>
+      <c r="AI30" s="376">
+        <v>486320</v>
+      </c>
+      <c r="AJ30" s="385"/>
+      <c r="AK30" s="386"/>
+      <c r="AL30" s="387"/>
+      <c r="AM30" s="237"/>
+      <c r="AN30" s="237"/>
+      <c r="AO30" s="236"/>
+      <c r="AP30" s="237"/>
+      <c r="AQ30" s="383"/>
+      <c r="AR30" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="AS30" s="371"/>
+      <c r="AS30" s="389">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:45">
-      <c r="A31" s="234" t="s">
+      <c r="A31" s="236" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="234" t="s">
-        <v>500</v>
-      </c>
-      <c r="C31" s="235">
-        <v>6.7845232384540211E-3</v>
-      </c>
-      <c r="D31" s="235">
-        <v>6.7845232384540211E-3</v>
-      </c>
-      <c r="E31" s="235">
-        <v>6.7845232384540211E-3</v>
-      </c>
-      <c r="F31" s="235">
-        <v>6.7845232384540211E-3</v>
-      </c>
+      <c r="B31" s="236" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="237"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="237"/>
       <c r="G31" s="235">
-        <v>0.27083010644724925</v>
-      </c>
-      <c r="H31" s="372">
-        <v>483042.78499999997</v>
-      </c>
-      <c r="I31" s="373" t="s">
+        <v>-2.8287376780328444E-2</v>
+      </c>
+      <c r="H31" s="375"/>
+      <c r="I31" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="234"/>
-      <c r="K31" s="374" t="s">
-        <v>522</v>
-      </c>
-      <c r="L31" s="374" t="s">
+      <c r="J31" s="391"/>
+      <c r="K31" s="236"/>
+      <c r="L31" s="392" t="s">
         <v>34</v>
       </c>
       <c r="M31" s="237" t="s">
         <v>29</v>
       </c>
       <c r="N31" s="375">
-        <v>500000</v>
-      </c>
-      <c r="O31" s="376">
-        <v>0.96608556999999995</v>
-      </c>
-      <c r="P31" s="376">
-        <v>0.96608556999999995</v>
-      </c>
-      <c r="Q31" s="376">
-        <v>1</v>
-      </c>
-      <c r="R31" s="377">
-        <v>483042.78499999997</v>
-      </c>
-      <c r="S31" s="376">
-        <v>0.97263999999999995</v>
-      </c>
+        <v>-50750</v>
+      </c>
+      <c r="O31" s="237"/>
+      <c r="P31" s="237"/>
+      <c r="Q31" s="237"/>
+      <c r="R31" s="375"/>
+      <c r="S31" s="375"/>
       <c r="T31" s="376">
         <v>1</v>
       </c>
-      <c r="U31" s="376">
-        <v>486320</v>
-      </c>
-      <c r="V31" s="376"/>
-      <c r="W31" s="378"/>
+      <c r="U31" s="375">
+        <v>-50750</v>
+      </c>
+      <c r="V31" s="375"/>
+      <c r="W31" s="236"/>
       <c r="X31" s="379">
         <v>45290</v>
       </c>
-      <c r="Y31" s="380">
-        <v>45616</v>
-      </c>
-      <c r="Z31" s="381"/>
-      <c r="AA31" s="381"/>
-      <c r="AB31" s="382"/>
-      <c r="AC31" s="382"/>
+      <c r="Y31" s="379"/>
+      <c r="Z31" s="375"/>
+      <c r="AA31" s="375"/>
+      <c r="AB31" s="237"/>
+      <c r="AC31" s="237"/>
       <c r="AD31" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="AE31" s="383"/>
-      <c r="AF31" s="383"/>
-      <c r="AG31" s="384"/>
-      <c r="AH31" s="384"/>
+      <c r="AE31" s="375"/>
+      <c r="AF31" s="375"/>
+      <c r="AG31" s="236"/>
+      <c r="AH31" s="236"/>
       <c r="AI31" s="376">
-        <v>486320</v>
-      </c>
-      <c r="AJ31" s="385"/>
-      <c r="AK31" s="386"/>
-      <c r="AL31" s="387"/>
+        <v>-50750</v>
+      </c>
+      <c r="AJ31" s="393"/>
+      <c r="AK31" s="393"/>
+      <c r="AL31" s="379"/>
       <c r="AM31" s="237"/>
       <c r="AN31" s="237"/>
       <c r="AO31" s="236"/>
-      <c r="AP31" s="237"/>
-      <c r="AQ31" s="383"/>
-      <c r="AR31" s="388" t="s">
+      <c r="AP31" s="398"/>
+      <c r="AQ31" s="237"/>
+      <c r="AR31" s="394" t="s">
         <v>33</v>
       </c>
-      <c r="AS31" s="389">
-        <v>1</v>
-      </c>
+      <c r="AS31" s="237"/>
     </row>
     <row r="32" spans="1:45">
       <c r="A32" s="236" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="236" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C32" s="237"/>
       <c r="D32" s="237"/>
       <c r="E32" s="237"/>
       <c r="F32" s="237"/>
       <c r="G32" s="235">
-        <v>-2.8262518305226806E-2</v>
+        <v>2.1956260752025315E-2</v>
       </c>
       <c r="H32" s="375"/>
       <c r="I32" s="390" t="s">
@@ -29664,13 +29531,13 @@
       <c r="J32" s="391"/>
       <c r="K32" s="236"/>
       <c r="L32" s="392" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M32" s="237" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N32" s="375">
-        <v>-50750</v>
+        <v>43484.2</v>
       </c>
       <c r="O32" s="237"/>
       <c r="P32" s="237"/>
@@ -29678,10 +29545,10 @@
       <c r="R32" s="375"/>
       <c r="S32" s="375"/>
       <c r="T32" s="376">
-        <v>1</v>
+        <v>1.1039000000000001</v>
       </c>
       <c r="U32" s="375">
-        <v>-50750</v>
+        <v>39391.430383186875</v>
       </c>
       <c r="V32" s="375"/>
       <c r="W32" s="236"/>
@@ -29694,14 +29561,14 @@
       <c r="AB32" s="237"/>
       <c r="AC32" s="237"/>
       <c r="AD32" s="237" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="AE32" s="375"/>
       <c r="AF32" s="375"/>
       <c r="AG32" s="236"/>
       <c r="AH32" s="236"/>
       <c r="AI32" s="376">
-        <v>-50750</v>
+        <v>39391.430383186875</v>
       </c>
       <c r="AJ32" s="393"/>
       <c r="AK32" s="393"/>
@@ -29709,7 +29576,7 @@
       <c r="AM32" s="237"/>
       <c r="AN32" s="237"/>
       <c r="AO32" s="236"/>
-      <c r="AP32" s="410"/>
+      <c r="AP32" s="398"/>
       <c r="AQ32" s="237"/>
       <c r="AR32" s="394" t="s">
         <v>33</v>
@@ -29721,14 +29588,14 @@
         <v>38</v>
       </c>
       <c r="B33" s="236" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C33" s="237"/>
       <c r="D33" s="237"/>
       <c r="E33" s="237"/>
       <c r="F33" s="237"/>
       <c r="G33" s="235">
-        <v>2.1936965956135694E-2</v>
+        <v>3.8934071778013352E-4</v>
       </c>
       <c r="H33" s="375"/>
       <c r="I33" s="390" t="s">
@@ -29737,13 +29604,13 @@
       <c r="J33" s="391"/>
       <c r="K33" s="236"/>
       <c r="L33" s="392" t="s">
-        <v>37</v>
+        <v>524</v>
       </c>
       <c r="M33" s="237" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N33" s="375">
-        <v>43484.2</v>
+        <v>13983.49</v>
       </c>
       <c r="O33" s="237"/>
       <c r="P33" s="237"/>
@@ -29751,10 +29618,10 @@
       <c r="R33" s="375"/>
       <c r="S33" s="375"/>
       <c r="T33" s="376">
-        <v>1.1039000000000001</v>
+        <v>20.018999999999998</v>
       </c>
       <c r="U33" s="375">
-        <v>39391.430383186875</v>
+        <v>698.51091463110049</v>
       </c>
       <c r="V33" s="375"/>
       <c r="W33" s="236"/>
@@ -29767,14 +29634,14 @@
       <c r="AB33" s="237"/>
       <c r="AC33" s="237"/>
       <c r="AD33" s="237" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AE33" s="375"/>
       <c r="AF33" s="375"/>
       <c r="AG33" s="236"/>
       <c r="AH33" s="236"/>
       <c r="AI33" s="376">
-        <v>39391.430383186875</v>
+        <v>698.51091463110049</v>
       </c>
       <c r="AJ33" s="393"/>
       <c r="AK33" s="393"/>
@@ -29782,7 +29649,7 @@
       <c r="AM33" s="237"/>
       <c r="AN33" s="237"/>
       <c r="AO33" s="236"/>
-      <c r="AP33" s="410"/>
+      <c r="AP33" s="398"/>
       <c r="AQ33" s="237"/>
       <c r="AR33" s="394" t="s">
         <v>33</v>
@@ -29794,14 +29661,14 @@
         <v>38</v>
       </c>
       <c r="B34" s="236" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="237"/>
       <c r="D34" s="237"/>
       <c r="E34" s="237"/>
       <c r="F34" s="237"/>
       <c r="G34" s="235">
-        <v>3.8899857164851617E-4</v>
+        <v>1.06403524054218E-3</v>
       </c>
       <c r="H34" s="375"/>
       <c r="I34" s="390" t="s">
@@ -29810,13 +29677,13 @@
       <c r="J34" s="391"/>
       <c r="K34" s="236"/>
       <c r="L34" s="392" t="s">
-        <v>524</v>
+        <v>291</v>
       </c>
       <c r="M34" s="237" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N34" s="375">
-        <v>13983.49</v>
+        <v>297265</v>
       </c>
       <c r="O34" s="237"/>
       <c r="P34" s="237"/>
@@ -29824,10 +29691,10 @@
       <c r="R34" s="375"/>
       <c r="S34" s="375"/>
       <c r="T34" s="376">
-        <v>20.018999999999998</v>
+        <v>155.72</v>
       </c>
       <c r="U34" s="375">
-        <v>698.51091463110049</v>
+        <v>1908.9712304135628</v>
       </c>
       <c r="V34" s="375"/>
       <c r="W34" s="236"/>
@@ -29840,14 +29707,14 @@
       <c r="AB34" s="237"/>
       <c r="AC34" s="237"/>
       <c r="AD34" s="237" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE34" s="375"/>
       <c r="AF34" s="375"/>
       <c r="AG34" s="236"/>
       <c r="AH34" s="236"/>
       <c r="AI34" s="376">
-        <v>698.51091463110049</v>
+        <v>1908.9712304135628</v>
       </c>
       <c r="AJ34" s="393"/>
       <c r="AK34" s="393"/>
@@ -29855,7 +29722,7 @@
       <c r="AM34" s="237"/>
       <c r="AN34" s="237"/>
       <c r="AO34" s="236"/>
-      <c r="AP34" s="410"/>
+      <c r="AP34" s="398"/>
       <c r="AQ34" s="237"/>
       <c r="AR34" s="394" t="s">
         <v>33</v>
@@ -29867,14 +29734,14 @@
         <v>38</v>
       </c>
       <c r="B35" s="236" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C35" s="237"/>
       <c r="D35" s="237"/>
       <c r="E35" s="237"/>
       <c r="F35" s="237"/>
       <c r="G35" s="235">
-        <v>1.0631001841126041E-3</v>
+        <v>5.3983793649698695E-3</v>
       </c>
       <c r="H35" s="375"/>
       <c r="I35" s="390" t="s">
@@ -29883,13 +29750,13 @@
       <c r="J35" s="391"/>
       <c r="K35" s="236"/>
       <c r="L35" s="392" t="s">
-        <v>291</v>
+        <v>100</v>
       </c>
       <c r="M35" s="237" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N35" s="375">
-        <v>297265</v>
+        <v>181595.77</v>
       </c>
       <c r="O35" s="237"/>
       <c r="P35" s="237"/>
@@ -29897,10 +29764,10 @@
       <c r="R35" s="375"/>
       <c r="S35" s="375"/>
       <c r="T35" s="376">
-        <v>155.72</v>
+        <v>18.7499</v>
       </c>
       <c r="U35" s="375">
-        <v>1908.9712304135628</v>
+        <v>9685.1593875167327</v>
       </c>
       <c r="V35" s="375"/>
       <c r="W35" s="236"/>
@@ -29913,14 +29780,14 @@
       <c r="AB35" s="237"/>
       <c r="AC35" s="237"/>
       <c r="AD35" s="237" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AE35" s="375"/>
       <c r="AF35" s="375"/>
       <c r="AG35" s="236"/>
       <c r="AH35" s="236"/>
       <c r="AI35" s="376">
-        <v>1908.9712304135628</v>
+        <v>9685.1593875167327</v>
       </c>
       <c r="AJ35" s="393"/>
       <c r="AK35" s="393"/>
@@ -29928,7 +29795,7 @@
       <c r="AM35" s="237"/>
       <c r="AN35" s="237"/>
       <c r="AO35" s="236"/>
-      <c r="AP35" s="410"/>
+      <c r="AP35" s="398"/>
       <c r="AQ35" s="237"/>
       <c r="AR35" s="394" t="s">
         <v>33</v>
@@ -29940,14 +29807,14 @@
         <v>38</v>
       </c>
       <c r="B36" s="236" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C36" s="237"/>
       <c r="D36" s="237"/>
       <c r="E36" s="237"/>
       <c r="F36" s="237"/>
       <c r="G36" s="235">
-        <v>5.3936353591868156E-3</v>
+        <v>-3.432398636883466E-4</v>
       </c>
       <c r="H36" s="375"/>
       <c r="I36" s="390" t="s">
@@ -29956,13 +29823,13 @@
       <c r="J36" s="391"/>
       <c r="K36" s="236"/>
       <c r="L36" s="392" t="s">
-        <v>100</v>
+        <v>525</v>
       </c>
       <c r="M36" s="237" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N36" s="375">
-        <v>181595.77</v>
+        <v>-572</v>
       </c>
       <c r="O36" s="237"/>
       <c r="P36" s="237"/>
@@ -29970,10 +29837,10 @@
       <c r="R36" s="375"/>
       <c r="S36" s="375"/>
       <c r="T36" s="376">
-        <v>18.7499</v>
+        <v>0.92886999999999997</v>
       </c>
       <c r="U36" s="375">
-        <v>9685.1593875167327</v>
+        <v>-615.8019959736024</v>
       </c>
       <c r="V36" s="375"/>
       <c r="W36" s="236"/>
@@ -29986,14 +29853,14 @@
       <c r="AB36" s="237"/>
       <c r="AC36" s="237"/>
       <c r="AD36" s="237" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AE36" s="375"/>
       <c r="AF36" s="375"/>
       <c r="AG36" s="236"/>
       <c r="AH36" s="236"/>
       <c r="AI36" s="376">
-        <v>9685.1593875167327</v>
+        <v>-615.8019959736024</v>
       </c>
       <c r="AJ36" s="393"/>
       <c r="AK36" s="393"/>
@@ -30001,7 +29868,7 @@
       <c r="AM36" s="237"/>
       <c r="AN36" s="237"/>
       <c r="AO36" s="236"/>
-      <c r="AP36" s="410"/>
+      <c r="AP36" s="398"/>
       <c r="AQ36" s="237"/>
       <c r="AR36" s="394" t="s">
         <v>33</v>
@@ -30013,14 +29880,14 @@
         <v>38</v>
       </c>
       <c r="B37" s="236" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C37" s="237"/>
       <c r="D37" s="237"/>
       <c r="E37" s="237"/>
       <c r="F37" s="237"/>
       <c r="G37" s="235">
-        <v>-3.4293823021870227E-4</v>
+        <v>2.8662144653902058E-2</v>
       </c>
       <c r="H37" s="375"/>
       <c r="I37" s="390" t="s">
@@ -30029,13 +29896,13 @@
       <c r="J37" s="391"/>
       <c r="K37" s="236"/>
       <c r="L37" s="392" t="s">
-        <v>525</v>
+        <v>222</v>
       </c>
       <c r="M37" s="237" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N37" s="375">
-        <v>-572</v>
+        <v>19714820.890000001</v>
       </c>
       <c r="O37" s="237"/>
       <c r="P37" s="237"/>
@@ -30043,10 +29910,10 @@
       <c r="R37" s="375"/>
       <c r="S37" s="375"/>
       <c r="T37" s="376">
-        <v>0.92886999999999997</v>
+        <v>383.39</v>
       </c>
       <c r="U37" s="375">
-        <v>-615.8019959736024</v>
+        <v>51422.36597198675</v>
       </c>
       <c r="V37" s="375"/>
       <c r="W37" s="236"/>
@@ -30059,14 +29926,14 @@
       <c r="AB37" s="237"/>
       <c r="AC37" s="237"/>
       <c r="AD37" s="237" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AE37" s="375"/>
       <c r="AF37" s="375"/>
       <c r="AG37" s="236"/>
       <c r="AH37" s="236"/>
       <c r="AI37" s="376">
-        <v>-615.8019959736024</v>
+        <v>51422.36597198675</v>
       </c>
       <c r="AJ37" s="393"/>
       <c r="AK37" s="393"/>
@@ -30074,7 +29941,7 @@
       <c r="AM37" s="237"/>
       <c r="AN37" s="237"/>
       <c r="AO37" s="236"/>
-      <c r="AP37" s="410"/>
+      <c r="AP37" s="398"/>
       <c r="AQ37" s="237"/>
       <c r="AR37" s="394" t="s">
         <v>33</v>
@@ -30082,82 +29949,22 @@
       <c r="AS37" s="237"/>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="236" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="236" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="237"/>
-      <c r="D38" s="237"/>
-      <c r="E38" s="237"/>
-      <c r="F38" s="237"/>
-      <c r="G38" s="235">
-        <v>2.8636956839041331E-2</v>
-      </c>
-      <c r="H38" s="375"/>
-      <c r="I38" s="390" t="s">
-        <v>4</v>
-      </c>
-      <c r="J38" s="391"/>
-      <c r="K38" s="236"/>
-      <c r="L38" s="392" t="s">
-        <v>222</v>
-      </c>
-      <c r="M38" s="237" t="s">
-        <v>70</v>
-      </c>
-      <c r="N38" s="375">
-        <v>19714820.890000001</v>
-      </c>
-      <c r="O38" s="237"/>
-      <c r="P38" s="237"/>
-      <c r="Q38" s="237"/>
-      <c r="R38" s="375"/>
-      <c r="S38" s="375"/>
-      <c r="T38" s="376">
-        <v>383.39</v>
-      </c>
-      <c r="U38" s="375">
-        <v>51422.36597198675</v>
-      </c>
-      <c r="V38" s="375"/>
-      <c r="W38" s="236"/>
-      <c r="X38" s="379">
-        <v>45290</v>
-      </c>
-      <c r="Y38" s="379"/>
-      <c r="Z38" s="375"/>
-      <c r="AA38" s="375"/>
-      <c r="AB38" s="237"/>
-      <c r="AC38" s="237"/>
-      <c r="AD38" s="237" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE38" s="375"/>
-      <c r="AF38" s="375"/>
-      <c r="AG38" s="236"/>
-      <c r="AH38" s="236"/>
-      <c r="AI38" s="376">
-        <v>51422.36597198675</v>
-      </c>
-      <c r="AJ38" s="393"/>
-      <c r="AK38" s="393"/>
-      <c r="AL38" s="379"/>
-      <c r="AM38" s="237"/>
-      <c r="AN38" s="237"/>
-      <c r="AO38" s="236"/>
-      <c r="AP38" s="410"/>
-      <c r="AQ38" s="237"/>
-      <c r="AR38" s="394" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS38" s="237"/>
+      <c r="A38" s="238"/>
+      <c r="B38" s="238"/>
+      <c r="C38" s="239"/>
+      <c r="D38" s="239"/>
+      <c r="L38" s="2"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="U38" s="64">
+        <v>1794086.4716481054</v>
+      </c>
+      <c r="AI38" s="64"/>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="238"/>
+      <c r="A39" s="396"/>
       <c r="B39" s="238"/>
-      <c r="C39" s="239"/>
+      <c r="C39" s="397"/>
       <c r="D39" s="239"/>
       <c r="L39" s="86"/>
       <c r="M39" s="62"/>
@@ -30165,25 +29972,19 @@
       <c r="O39"/>
     </row>
     <row r="40" spans="1:45">
-      <c r="A40" s="408"/>
-      <c r="B40" s="238"/>
-      <c r="C40" s="409"/>
-      <c r="D40" s="239"/>
-      <c r="L40" s="86"/>
+      <c r="A40" s="4"/>
+      <c r="B40" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="63">
+        <v>1794086.4716481054</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="62"/>
-      <c r="N40"/>
-      <c r="O40"/>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="4"/>
-      <c r="B41" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="63">
-        <v>1795664.4716481054</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="L41" s="2"/>
+      <c r="L41" s="86"/>
       <c r="M41" s="62"/>
     </row>
     <row r="42" spans="1:45">
@@ -30193,21 +29994,20 @@
     <row r="43" spans="1:45">
       <c r="L43" s="86"/>
       <c r="M43" s="62"/>
+      <c r="V43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
     </row>
     <row r="44" spans="1:45">
-      <c r="L44" s="86"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="62"/>
-      <c r="V44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
     </row>
     <row r="45" spans="1:45">
-      <c r="L45" s="2"/>
+      <c r="L45" s="86"/>
       <c r="M45" s="62"/>
+      <c r="V45"/>
     </row>
     <row r="46" spans="1:45">
-      <c r="L46" s="86"/>
-      <c r="M46" s="62"/>
       <c r="V46"/>
     </row>
     <row r="47" spans="1:45">
@@ -30216,167 +30016,125 @@
     <row r="48" spans="1:45">
       <c r="V48"/>
     </row>
-    <row r="49" spans="22:22">
-      <c r="V49"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C41:F1048576 E39:F40">
-    <cfRule type="cellIs" dxfId="73" priority="109" operator="greaterThan">
+  <conditionalFormatting sqref="C40:F1048576 E38:F39">
+    <cfRule type="cellIs" dxfId="52" priority="109" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 C2:D16 C18:D24">
-    <cfRule type="cellIs" dxfId="72" priority="33" operator="equal">
+  <conditionalFormatting sqref="C26:D26 C2:D16 C18:D24 C28:D30">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:D26 C2:D16 C32:D36 C18:D24 C39:D39">
-    <cfRule type="cellIs" dxfId="70" priority="32" operator="greaterThan">
+  <conditionalFormatting sqref="C26:D26 C2:D16 C18:D24 C38:D38 C28:D35">
+    <cfRule type="cellIs" dxfId="49" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="69" priority="35" operator="greaterThan">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="cellIs" dxfId="48" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D25">
-    <cfRule type="cellIs" dxfId="68" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D25">
-    <cfRule type="cellIs" dxfId="66" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:D27">
-    <cfRule type="cellIs" dxfId="65" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:D27">
-    <cfRule type="cellIs" dxfId="63" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D17">
-    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D17">
-    <cfRule type="cellIs" dxfId="60" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C31">
-    <cfRule type="cellIs" dxfId="59" priority="20" operator="greaterThan">
+  <conditionalFormatting sqref="C36:D36">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C31">
-    <cfRule type="cellIs" dxfId="58" priority="21" operator="equal">
+  <conditionalFormatting sqref="E2:F16 E18:F27">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D31">
-    <cfRule type="cellIs" dxfId="56" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="E2:F16 E31:F35 E18:F27">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D31">
-    <cfRule type="cellIs" dxfId="55" priority="18" operator="equal">
+  <conditionalFormatting sqref="E17:F17">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F17">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F30">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:F30">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:F36">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:D37">
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F16 E18:F27">
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F16 E32:F36 E18:F27">
-    <cfRule type="cellIs" dxfId="50" priority="13" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F17">
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="12" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F17">
-    <cfRule type="cellIs" dxfId="46" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F31">
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F31">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:F37">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:D38">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F38">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42338,24 +42096,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F565:G646">
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F649:G651">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65937,13 +65695,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:L4">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -67077,13 +66835,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E4">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
